--- a/data/pca/factorExposure/factorExposure_2013-07-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-07-11.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002094750596708721</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001397403768013182</v>
+      </c>
+      <c r="C2">
+        <v>-0.0318876437538361</v>
+      </c>
+      <c r="D2">
+        <v>0.00572405169036535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002820427960454589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006006987726337523</v>
+      </c>
+      <c r="C4">
+        <v>-0.08232098919610764</v>
+      </c>
+      <c r="D4">
+        <v>0.08060756508083085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0004389788551174432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01338933800058385</v>
+      </c>
+      <c r="C6">
+        <v>-0.1052073296324006</v>
+      </c>
+      <c r="D6">
+        <v>0.04219670426676352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001390491138784859</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004902531304283268</v>
+      </c>
+      <c r="C7">
+        <v>-0.05148026758406011</v>
+      </c>
+      <c r="D7">
+        <v>0.03993384515019851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002817602394077792</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.006048920653749273</v>
+      </c>
+      <c r="C8">
+        <v>-0.03755749830026253</v>
+      </c>
+      <c r="D8">
+        <v>0.04190879961497735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005875477948526753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003912313940048702</v>
+      </c>
+      <c r="C9">
+        <v>-0.0665795058789652</v>
+      </c>
+      <c r="D9">
+        <v>0.0700011990679259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004370968063857336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.006365164650925556</v>
+      </c>
+      <c r="C10">
+        <v>-0.09167751341112833</v>
+      </c>
+      <c r="D10">
+        <v>-0.2161401841269287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.005984149387291928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.004960638548562029</v>
+      </c>
+      <c r="C11">
+        <v>-0.07785688358244496</v>
+      </c>
+      <c r="D11">
+        <v>0.06521719561534005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001061388491688078</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003771299234058635</v>
+      </c>
+      <c r="C12">
+        <v>-0.06227526924020089</v>
+      </c>
+      <c r="D12">
+        <v>0.04613037930237737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002662835569670881</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008485089255769582</v>
+      </c>
+      <c r="C13">
+        <v>-0.06769491687746909</v>
+      </c>
+      <c r="D13">
+        <v>0.0779126583557819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.003921982944918748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001930999554413663</v>
+      </c>
+      <c r="C14">
+        <v>-0.04703840438303451</v>
+      </c>
+      <c r="D14">
+        <v>0.01634915809407032</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.003271976094790866</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005965842642466206</v>
+      </c>
+      <c r="C15">
+        <v>-0.03709616192226171</v>
+      </c>
+      <c r="D15">
+        <v>0.04658513482126298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.003699391342746159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004970547894664759</v>
+      </c>
+      <c r="C16">
+        <v>-0.06346628256024868</v>
+      </c>
+      <c r="D16">
+        <v>0.05050192569113364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001440948425115713</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009257847484883765</v>
+      </c>
+      <c r="C20">
+        <v>-0.06457995950978428</v>
+      </c>
+      <c r="D20">
+        <v>0.05717549802284454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.003143432793211887</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.00948721066579683</v>
+      </c>
+      <c r="C21">
+        <v>-0.02453600892301661</v>
+      </c>
+      <c r="D21">
+        <v>0.03784194622651822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01658387680196792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007976513777476242</v>
+      </c>
+      <c r="C22">
+        <v>-0.08459471484871373</v>
+      </c>
+      <c r="D22">
+        <v>0.1033365592472672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01684703632863119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.007732758514061922</v>
+      </c>
+      <c r="C23">
+        <v>-0.08715405605491187</v>
+      </c>
+      <c r="D23">
+        <v>0.1007065456975348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.00458138999494175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004477217792169469</v>
+      </c>
+      <c r="C24">
+        <v>-0.07094087191457031</v>
+      </c>
+      <c r="D24">
+        <v>0.05957604436008205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005737725552473226</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002888669455539625</v>
+      </c>
+      <c r="C25">
+        <v>-0.07633924158371433</v>
+      </c>
+      <c r="D25">
+        <v>0.06262740711280981</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.007103417453784215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003638129430497217</v>
+      </c>
+      <c r="C26">
+        <v>-0.04357417032405825</v>
+      </c>
+      <c r="D26">
+        <v>0.01739186587924942</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005680845056347172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0007212306240656984</v>
+      </c>
+      <c r="C28">
+        <v>-0.1417456430157402</v>
+      </c>
+      <c r="D28">
+        <v>-0.2983470780375006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001714708566592662</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003535516931284701</v>
+      </c>
+      <c r="C29">
+        <v>-0.05032818696139525</v>
+      </c>
+      <c r="D29">
+        <v>0.02149424283047624</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005658812887335701</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009189376433942553</v>
+      </c>
+      <c r="C30">
+        <v>-0.1312481786032136</v>
+      </c>
+      <c r="D30">
+        <v>0.1150443732834732</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-9.352968202765139e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006102392476076298</v>
+      </c>
+      <c r="C31">
+        <v>-0.04698090148123536</v>
+      </c>
+      <c r="D31">
+        <v>0.03743506768943058</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005933411525175743</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003599859990650815</v>
+      </c>
+      <c r="C32">
+        <v>-0.0423000571602536</v>
+      </c>
+      <c r="D32">
+        <v>0.01487416197864522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.004612964028274083</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007861894981616229</v>
+      </c>
+      <c r="C33">
+        <v>-0.08096190296411256</v>
+      </c>
+      <c r="D33">
+        <v>0.07622502399173917</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.006037706077228774</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.00366884356036043</v>
+      </c>
+      <c r="C34">
+        <v>-0.05590836171457402</v>
+      </c>
+      <c r="D34">
+        <v>0.04329379275916323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.004312798838616991</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005125226465701089</v>
+      </c>
+      <c r="C35">
+        <v>-0.03917226368816818</v>
+      </c>
+      <c r="D35">
+        <v>0.02050960262478043</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.005540416589669642</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001347622493072324</v>
+      </c>
+      <c r="C36">
+        <v>-0.02708759919118515</v>
+      </c>
+      <c r="D36">
+        <v>0.01681595385355664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002243717436822172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009138720911692077</v>
+      </c>
+      <c r="C38">
+        <v>-0.03489623372122558</v>
+      </c>
+      <c r="D38">
+        <v>0.03218421504381048</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01578833597695213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001310376216311752</v>
+      </c>
+      <c r="C39">
+        <v>-0.1094112332676279</v>
+      </c>
+      <c r="D39">
+        <v>0.08927172858204425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.00849802797282212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002538395426096805</v>
+      </c>
+      <c r="C40">
+        <v>-0.08350614322068176</v>
+      </c>
+      <c r="D40">
+        <v>0.03727011705781721</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0001110191943756465</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007512974268686121</v>
+      </c>
+      <c r="C41">
+        <v>-0.04198177996423081</v>
+      </c>
+      <c r="D41">
+        <v>0.03407966532429363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002165665466698633</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.002814523835963193</v>
+      </c>
+      <c r="C43">
+        <v>-0.05221038474158032</v>
+      </c>
+      <c r="D43">
+        <v>0.02704115298169218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.005302256424545971</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003461139439588715</v>
+      </c>
+      <c r="C44">
+        <v>-0.1038853681453768</v>
+      </c>
+      <c r="D44">
+        <v>0.0849281509477363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.002402232564961132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002627840456231029</v>
+      </c>
+      <c r="C46">
+        <v>-0.03410072120100108</v>
+      </c>
+      <c r="D46">
+        <v>0.03435041966755752</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002720020711479434</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.003025117967396363</v>
+      </c>
+      <c r="C47">
+        <v>-0.0414321842456473</v>
+      </c>
+      <c r="D47">
+        <v>0.029811183779945</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003647733875559655</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006578253906409683</v>
+      </c>
+      <c r="C48">
+        <v>-0.03259506964561495</v>
+      </c>
+      <c r="D48">
+        <v>0.02263289797727578</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01640609674629325</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01396557861375983</v>
+      </c>
+      <c r="C49">
+        <v>-0.1628702667772116</v>
+      </c>
+      <c r="D49">
+        <v>0.04849010604188574</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0003896152334862466</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003930380498622059</v>
+      </c>
+      <c r="C50">
+        <v>-0.04321833663845316</v>
+      </c>
+      <c r="D50">
+        <v>0.03849153136025701</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.002632108920237237</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004149392530454498</v>
+      </c>
+      <c r="C51">
+        <v>-0.01960722217310924</v>
+      </c>
+      <c r="D51">
+        <v>0.03670104052390921</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0002802074727989777</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.01978617980678626</v>
+      </c>
+      <c r="C53">
+        <v>-0.1619471508445272</v>
+      </c>
+      <c r="D53">
+        <v>0.06034462551173907</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001423880407650665</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008502739465741344</v>
+      </c>
+      <c r="C54">
+        <v>-0.05419330929913466</v>
+      </c>
+      <c r="D54">
+        <v>0.0410293478031338</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.0060935706834841</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009456575180127659</v>
+      </c>
+      <c r="C55">
+        <v>-0.1029757769208982</v>
+      </c>
+      <c r="D55">
+        <v>0.05840204452396332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001185314504334593</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01863909458112738</v>
+      </c>
+      <c r="C56">
+        <v>-0.1664158918443085</v>
+      </c>
+      <c r="D56">
+        <v>0.06304678055802085</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009062522183741992</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01946381694958273</v>
+      </c>
+      <c r="C58">
+        <v>-0.09886438356149239</v>
+      </c>
+      <c r="D58">
+        <v>0.08363081512688034</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009574205799904532</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009417099895838242</v>
+      </c>
+      <c r="C59">
+        <v>-0.1812115097071547</v>
+      </c>
+      <c r="D59">
+        <v>-0.2620823318624364</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.009210496566781589</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02280471673486611</v>
+      </c>
+      <c r="C60">
+        <v>-0.2225191437100133</v>
+      </c>
+      <c r="D60">
+        <v>0.03140462075168664</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01810395726151205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002198418412861688</v>
+      </c>
+      <c r="C61">
+        <v>-0.0924646578099616</v>
+      </c>
+      <c r="D61">
+        <v>0.06633757694960231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1889270585574014</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1449770924305111</v>
+      </c>
+      <c r="C62">
+        <v>-0.06737171541250041</v>
+      </c>
+      <c r="D62">
+        <v>0.05746298441011521</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.003086193447690883</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006405265069222817</v>
+      </c>
+      <c r="C63">
+        <v>-0.0602998019926352</v>
+      </c>
+      <c r="D63">
+        <v>0.01942035626621956</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.006359438930582497</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01541712085319255</v>
+      </c>
+      <c r="C64">
+        <v>-0.09577176943891</v>
+      </c>
+      <c r="D64">
+        <v>0.07293605008189535</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0004365812761333708</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01717180803677686</v>
+      </c>
+      <c r="C65">
+        <v>-0.1094556579097664</v>
+      </c>
+      <c r="D65">
+        <v>0.0413763287446467</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.01237082167189223</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.0119649719243912</v>
+      </c>
+      <c r="C66">
+        <v>-0.1449918346407781</v>
+      </c>
+      <c r="D66">
+        <v>0.1283872395958391</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.001767176461898362</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01503832997047494</v>
+      </c>
+      <c r="C67">
+        <v>-0.06328823557689597</v>
+      </c>
+      <c r="D67">
+        <v>0.0439526071795916</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.009460010763892929</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.00179576411911952</v>
+      </c>
+      <c r="C68">
+        <v>-0.1253641224142419</v>
+      </c>
+      <c r="D68">
+        <v>-0.2672825278956473</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003456492077937329</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.00514169573978482</v>
+      </c>
+      <c r="C69">
+        <v>-0.04586228736482831</v>
+      </c>
+      <c r="D69">
+        <v>0.04448626608605447</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00129555685238727</v>
+      </c>
+      <c r="C70">
+        <v>-0.001653414735575128</v>
+      </c>
+      <c r="D70">
+        <v>0.001694399113383517</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.004668899292539476</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006730009620993331</v>
+      </c>
+      <c r="C71">
+        <v>-0.1290692055043176</v>
+      </c>
+      <c r="D71">
+        <v>-0.2790803895686069</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.008715329463671158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01503350940511218</v>
+      </c>
+      <c r="C72">
+        <v>-0.1455788981318493</v>
+      </c>
+      <c r="D72">
+        <v>0.04128825347619776</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01462470828450936</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03076451245444817</v>
+      </c>
+      <c r="C73">
+        <v>-0.2823331574556233</v>
+      </c>
+      <c r="D73">
+        <v>0.056464054968433</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.006004162231761047</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001740153239438724</v>
+      </c>
+      <c r="C74">
+        <v>-0.1017680578862478</v>
+      </c>
+      <c r="D74">
+        <v>0.04794282624888611</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.006875016279706874</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01026437617624489</v>
+      </c>
+      <c r="C75">
+        <v>-0.1296823686422426</v>
+      </c>
+      <c r="D75">
+        <v>0.05030129349997069</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01034414238923032</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02092165303040078</v>
+      </c>
+      <c r="C76">
+        <v>-0.1406041171596369</v>
+      </c>
+      <c r="D76">
+        <v>0.07822740880642737</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.008511570895347915</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.0216906903522818</v>
+      </c>
+      <c r="C77">
+        <v>-0.1152080643157832</v>
+      </c>
+      <c r="D77">
+        <v>0.1224516094008137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0006083820449121962</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01449199540862969</v>
+      </c>
+      <c r="C78">
+        <v>-0.08891668215048008</v>
+      </c>
+      <c r="D78">
+        <v>0.06888895209027909</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02630597029242085</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03618601225980633</v>
+      </c>
+      <c r="C79">
+        <v>-0.1496600118153499</v>
+      </c>
+      <c r="D79">
+        <v>0.04898200993547437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.003216631181976905</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01085680888781298</v>
+      </c>
+      <c r="C80">
+        <v>-0.04374279310652691</v>
+      </c>
+      <c r="D80">
+        <v>0.02929508287188353</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>9.616040359914261e-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01430185768245572</v>
+      </c>
+      <c r="C81">
+        <v>-0.1167472215667877</v>
+      </c>
+      <c r="D81">
+        <v>0.06915858683889323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.006176987971466165</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01809710803916791</v>
+      </c>
+      <c r="C82">
+        <v>-0.1355115049737681</v>
+      </c>
+      <c r="D82">
+        <v>0.05500506293247872</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008436799951172472</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009584865491363085</v>
+      </c>
+      <c r="C83">
+        <v>-0.04982952942451471</v>
+      </c>
+      <c r="D83">
+        <v>0.05098459499406664</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01355651477270651</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01237736230741092</v>
+      </c>
+      <c r="C84">
+        <v>-0.03116513408973297</v>
+      </c>
+      <c r="D84">
+        <v>0.00372574887676829</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01625522833661847</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02842543673537063</v>
+      </c>
+      <c r="C85">
+        <v>-0.1266110777040406</v>
+      </c>
+      <c r="D85">
+        <v>0.06388570544466016</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003771419553073472</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004810643679226289</v>
+      </c>
+      <c r="C86">
+        <v>-0.04774360591073453</v>
+      </c>
+      <c r="D86">
+        <v>0.02258507109765648</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.00819356565282822</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009628517546380388</v>
+      </c>
+      <c r="C87">
+        <v>-0.1200475995784599</v>
+      </c>
+      <c r="D87">
+        <v>0.08627789950568523</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01486192306921708</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.0031380551269094</v>
+      </c>
+      <c r="C88">
+        <v>-0.07328947532853991</v>
+      </c>
+      <c r="D88">
+        <v>0.01803088614714129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01576557335187966</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001438561953700455</v>
+      </c>
+      <c r="C89">
+        <v>-0.1793376097788072</v>
+      </c>
+      <c r="D89">
+        <v>-0.324954405327341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.00255603233246959</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.008032488425639752</v>
+      </c>
+      <c r="C90">
+        <v>-0.1610203606450511</v>
+      </c>
+      <c r="D90">
+        <v>-0.3137437159374533</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.000682246469302585</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009783911667587436</v>
+      </c>
+      <c r="C91">
+        <v>-0.1019898232880824</v>
+      </c>
+      <c r="D91">
+        <v>0.02414589528496066</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.018859419914122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001544791363965038</v>
+      </c>
+      <c r="C92">
+        <v>-0.1682766193119944</v>
+      </c>
+      <c r="D92">
+        <v>-0.3130447458637231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.002142150408963779</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005483633051625829</v>
+      </c>
+      <c r="C93">
+        <v>-0.1430659560589124</v>
+      </c>
+      <c r="D93">
+        <v>-0.3059530832618335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0008674970074963929</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.0217412309947912</v>
+      </c>
+      <c r="C94">
+        <v>-0.1553940254541489</v>
+      </c>
+      <c r="D94">
+        <v>0.04095564236686555</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.007083855100584469</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01658652582396109</v>
+      </c>
+      <c r="C95">
+        <v>-0.1199314379908429</v>
+      </c>
+      <c r="D95">
+        <v>0.06749008524137981</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.004649806465467914</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03205008332574345</v>
+      </c>
+      <c r="C97">
+        <v>-0.1630660247056616</v>
+      </c>
+      <c r="D97">
+        <v>0.05704684732233661</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01024356987504872</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03568472732624214</v>
+      </c>
+      <c r="C98">
+        <v>-0.2567202998688163</v>
+      </c>
+      <c r="D98">
+        <v>0.05099837395239781</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9791666368443316</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827107657711687</v>
+      </c>
+      <c r="C99">
+        <v>0.1056320106885281</v>
+      </c>
+      <c r="D99">
+        <v>-0.03747534355507985</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001666935506838276</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.00358013996134691</v>
+      </c>
+      <c r="C101">
+        <v>-0.05040830287689649</v>
+      </c>
+      <c r="D101">
+        <v>0.02154188785528241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
